--- a/i18n/excel_from_translation/it.horta.dss.xlsx
+++ b/i18n/excel_from_translation/it.horta.dss.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26216"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="134" documentId="11_0068F305281A10CC17F346CC8CC05714D2564907" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09277D71-697C-4CA4-BB43-C5476227A514}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="11_0068F305281A10CC17F346CC8CC05714D2564907" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{659D7AB6-1323-40F9-9F70-7BDFB844241F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
   <si>
     <t>KEY</t>
   </si>
@@ -362,6 +362,43 @@
 https://www.horta-srl.it/en/</t>
   </si>
   <si>
+    <t xml:space="preserve">Reikalinga paskyra, taikomi mokesčiai
+Phytophthora infestans 
+SPRENDIMAS: Pagalba taikant apsaugos strategijas. 
+MODELIS: Pomidorų maro modelyje atsižvelgiama į pagrindinius su patogenu, aplinka ir augalo fenologiniu tarpsniu susijusius procesus ir apdoroja visus įvestus duomenis, kad būtų galima pateikti informaciją apie infekcijos riziką pasėlyje. 
+Alternaria solani
+SPRENDIMAS: Apsaugos strategijų taikymas. 
+MODELIS: Pomidorų sausligės modelyje atsižvelgiama į pagrindinius su patogenu, aplinka ir augalo fenologiniu tarpsniu susijusius procesus ir apdoroja visus įvestus duomenis, kad būtų galima pateikti informaciją apie infekcijos riziką pasėlyje. 
+ŠALTINIS: Horta 2023
+Pseudomonas syringae; Xanthomonas campestris
+SPRENDIMAS: Apsaugos strategijų taikymas. 
+MODELIS: Pomidorų bakterinės dėmėtligės modelyje atsižvelgiama į pagrindinius su patogeno P. syringae, aplinka ir augalo fenologiniu tarpsniu susijusius procesus ir apdoroja visus įvestus duomenis, kad būtų galima pateikti informaciją apie infekcijos riziką pasėlyje. 
+Xanthomonas campestris
+SPRENDIMAS: Apsaugos strategijų taikymas. 
+MODELIS: Pomidorų bakterinės dėmėtligės modelyje atsižvelgiama į pagrindinius su patogeno X. campestris, aplinka ir augalo fenologiniu tarpsniu susijusius procesus ir apdoroja visus įvestus duomenis, kad būtų galima pateikti informaciją apie infekcijos riziką pasėlyje.
+ŠALTINIS: Visus modelius pritaikė/sukūrė Horta s.l.r.
+https://www.horta-srl.it/en/
+</t>
+  </si>
+  <si>
+    <t>Compte requis (payant).
+Phytophthora infestans
+LA DÉCISION : Aide à la définition de stratégies de protection
+LE MODÈLE : Le modèle de mildiou de la tomate prend en compte la biologie de l'agent pathogène, l'environnement et le stade phénologique de la plante, et tient compte des données d'entrée pour évaluer le risque d'infection au champ.
+Alternaria solani
+LA DÉCISION : Aide à la définition de stratégies de protection
+LE MODÈLE : Le modèle d’alternariose de la tomate prend en compte la biologie de l'agent pathogène, l'environnement et le stade phénologique de la plante, et tient compte des données d'entrée pour évaluer le risque d'infection au champ.
+SOURCE : Horta 2023
+ Pseudomonas syringae ; Xanthomonas campestris
+LA DÉCISION : Aide à la définition de stratégies de protection
+LE MODÈLE : Le modèle de tache bactérienne de la tomate prend en compte la biologie de l'agent pathogène, l'environnement et le stade phénologique de la plante, et tient compte des données d'entrée pour évaluer le risque d'infection au champ.
+ Xanthomonas campestris
+LA DÉCISION : Aide à la définition de stratégies de protection
+LE MODÈLE : Le modèle de moucheture bactérienne de la tomate prend en compte la biologie de l'agent pathogène, l'environnement et le stade phénologique de la plante, et tient compte des données d'entrée pour évaluer le risque d'infection au champ.
+ SOURCE : Tous les modèles ont été adaptés/développés par Horta s.l.r https://www.ho
+rta-srl.it/en/</t>
+  </si>
+  <si>
     <t>"È necessario un profilo, si applicano le spese". 
 Phytophthora infestans 
 LA DECISIONE: guida l'applicazione di strategie di protezione 
@@ -381,6 +418,24 @@
 "</t>
   </si>
   <si>
+    <t>Απαιτείται λογαριασμός, ισχύουν χρεώσεις. 
+Phytophthora infestans 
+Η ΑΠΟΦΑΣΗ: Καθοδηγεί την εφαρμογή στρατηγικών προστασίας 
+ΤΟ ΜΟΝΤΕΛΟ: Το μοντέλο του όψιμου παθογόνου της τομάτας λαμβάνει υπόψη τις κύριες διεργασίες του παθογόνου, του περιβάλλοντος και του φαινολογικού σταδίου του φυτού και επεξεργάζεται όλα τα δεδομένα εισόδου προκειμένου να παρέχει πληροφορίες σχετικά με τον κίνδυνο μόλυνσης στον αγρό. 
+Alternaria solani
+Η ΑΠΟΦΑΣΗ: Εφαρμογή στρατηγικών προστασίας 
+ΤΟ ΜΟΝΤΕΛΟ: Το μοντέλο της πρώιμης σήψης της τομάτας λαμβάνει υπόψη τις κύριες διεργασίες του παθογόνου, του περιβάλλοντος και του φαινολογικού σταδίου του φυτού και επεξεργάζεται όλα τα δεδομένα εισόδου προκειμένου να παρέχει πληροφορίες σχετικά με τον κίνδυνο μόλυνσης στον αγρό. 
+ΠΗΓΗ: Horta 2023
+Pseudomonas syringae ; Xanthomonas campestris
+Η ΑΠΟΦΑΣΗ: Εφαρμογή στρατηγικών προστασίας 
+ΤΟ ΜΟΝΤΕΛΟ: Το μοντέλο βακτηριακής κηλίδας της τομάτας λαμβάνει υπόψη τις κύριες διεργασίες του P. syringae, του περιβάλλοντος και του φαινολογικού σταδίου του φυτού και επεξεργάζεται όλα τα δεδομένα εισόδου προκειμένου να παρέχει πληροφορίες σχετικά με τον κίνδυνο μόλυνσης στον αγρό. 
+Xanthomonas campestris
+Η ΑΠΟΦΑΣΗ: Εφαρμογή στρατηγικών προστασίας 
+ΤΟ ΜΟΝΤΕΛΟ: Το μοντέλο βακτηριακής κηλίδας της τομάτας λαμβάνει υπόψη τις κύριες διεργασίες του X. campestris, του περιβάλλοντος και του φαινολογικού σταδίου του φυτού και επεξεργάζεται όλα τα δεδομένα εισόδου προκειμένου να παρέχει πληροφορίες σχετικά με τον κίνδυνο μόλυνσης στον αγρό. 
+ΠΗΓΗ: Όλα τα μοντέλα έχουν προσαρμοστεί/αναπτυχθεί από την Horta s.l.r.
+https://www.horta-srl.it/en/</t>
+  </si>
+  <si>
     <t>it.horta.dss.1_0.models.it_horta_dss_tomato.name</t>
   </si>
   <si>
@@ -396,9 +451,15 @@
     <t>Horta Tomaten BOS</t>
   </si>
   <si>
+    <t>Horta Pomidorų SPS</t>
+  </si>
+  <si>
     <t>Horta DSS Pomodoro</t>
   </si>
   <si>
+    <t>Τομάτα Horta DSS</t>
+  </si>
+  <si>
     <t>it.horta.dss.1_0.models.it_horta_dss_tomato.purpose</t>
   </si>
   <si>
@@ -426,7 +487,16 @@
     <t>Malli arvioi kasvitautiriskiä tomaatilla</t>
   </si>
   <si>
+    <t>Modelių tikslas prognozuoti ligų riziką pomidorų pasėliuose.</t>
+  </si>
+  <si>
+    <t>Les modèles visent à prédire le risque de maladie pour les cultures de tomates.</t>
+  </si>
+  <si>
     <t>I modelli mirano a prevedere il rischio di malattia per le colture di pomodoro.</t>
+  </si>
+  <si>
+    <t>Τα μοντέλα αποσκοπούν στην πρόβλεψη του κινδύνου εμφάνισης ασθενειών στις καλλιέργειες τομάτας</t>
   </si>
   <si>
     <t>it.horta.dss.1_0.models.it_horta_dss_wheat.description</t>
@@ -623,6 +693,48 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Reikalinga paskyra, taikomi mokesčiai
+Puccinia striiformis
+SPRENDIMAS: Pagalba taikant apsaugos strategijas. 
+MODELIS: Geltonųjų rūdžių modelyje atsižvelgiama į pagrindinius su patogeno, aplinka ir augalo fenologiniu tarpsniu susijusius procesus ir apdoroja visus įvestus duomenis, kad būtų galima pateikti informaciją apie infekcijos riziką pasėlyje
+Puccinia triticina
+SPRENDIMAS: Apsaugos strategijų taikymas. 
+MODELIS: Rudųjų rūdžių modelyje atsižvelgiama į pagrindinius su patogeno, aplinka ir augalo fenologiniu tarpsniu susijusius procesus ir apdoroja visus įvestus duomenis, kad būtų galima pateikti informaciją apie infekcijos riziką pasėlyje
+Fusarium graminearum
+SPRENDIMAS: Apsaugos strategijų taikymas. 
+MODELIS: Fuzariozės modelyje atsižvelgiama į pagrindinius su patogeno, aplinka ir augalo fenologiniu tarpsniu susijusius procesus ir apdoroja visus įvestus duomenis, kad būtų galima pateikti informaciją apie infekcijos riziką pasėlyje. Modelyje taip pat nurodoma tikimybė, kada mikotoksinų kiekis viršija leistiną 
+Zymoseptoria tritici
+SPRENDIMAS: Apsaugos strategijų taikymas. 
+MODELIS: Lapų septoriozės modelyje atsižvelgiama į pagrindinius su patogeno, aplinka ir augalo fenologiniu tarpsniu susijusius procesus ir apdoroja visus įvestus duomenis, kad būtų galima pateikti informaciją apie lapų septoriozės infekcijos riziką pasėlyje. 
+Blumeria graminis f. sp. tritici
+SPRENDIMAS: Apsaugos strategijų taikymas. 
+MODELIS: Miltligės modelyje atsižvelgiama į pagrindinius su patogeno, aplinka ir augalo fenologiniu tarpsniu susijusius procesus ir apdoroja visus įvestus duomenis, kad būtų galima pateikti informaciją apie miltigės infekcijos riziką pasėlyje. 
+ŠALTINIS: Visus modelius pritaikė/sukūrė Horta s.l.r. 
+https://www.horta-srl.it/en/
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compte requis (payant).
+ Puccinia striiformis 
+LA DÉCISION : Aide à la définition de stratégies de protection
+LE MODÈLE : Le modèle de rouille jaune prend en compte la biologie de l'agent pathogène, l'environnement et le stade phénologique de la plante, et tient compte des données d'entrée pour évaluer le risque d'infection au champ. 
+ Puccinia triticina 
+LA DÉCISION : Aide à la définition de stratégies de protection
+LE MODÈLE : Le modèle de rouille brune prend en compte la biologie de l'agent pathogène, l'environnement et le stade phénologique de la plante, et tient compte des données d'entrée pour évaluer le risque d'infection au champ. 
+ Fusarium graminearum 
+LA DÉCISION : Aide à la définition de stratégies de protection
+LE MODÈLE : Le modèle de fusariose prend en compte la biologie de l'agent pathogène, l'environnement et le stade phénologique de la plante, et tient compte des données d'entrée pour évaluer le risque d'infection au champ. Le modèle fournit également la probabilité que la quantité de mycotoxines dépasse la limite légale. 
+ Zymoseptoria tritici 
+LA DÉCISION : Aide à la définition de stratégies de protection
+LE MODÈLE : Le modèle de septoriose prend en compte la biologie de l'agent pathogène, l'environnement et le stade phénologique de la plante, et tient compte des données d'entrée pour évaluer le risque d'infection de la septoriose au champ. 
+ Blumeria graminis f. sp. tritici 
+LA DÉCISION : Aide à la définition de stratégies de protection
+LE MODÈLE : Le modèle prend en compte la biologie de l'agent pathogène, l'environnement et le stade phénologique de la plante, et tient compte des données d'entrée pour évaluer le risque d'infection de l'oïdium du blé au champ. 
+ SOURCE : Tous les modèles ont été adaptés/développés par Horta s.l.r https://www.ho
+rta-srl.it/en/
+</t>
+  </si>
+  <si>
     <t>"Richiesto profilo, si applicano le spese". 
 Puccinia striiformis
 LA DECISIONE: guida l'applicazione delle strategie di protezione 
@@ -644,6 +756,27 @@
 "</t>
   </si>
   <si>
+    <t xml:space="preserve">Απαιτείται λογαριασμός, ισχύουν χρεώσεις. 
+Puccinia striiformis
+Η ΑΠΟΦΑΣΗ: Καθοδηγεί την εφαρμογή στρατηγικών προστασίας 
+ΤΟ ΜΟΝΤΕΛΟ: Το μοντέλο της κίτρινης ραβδωτής σκωρίασης λαμβάνει υπόψη τις κύριες διεργασίες του παθογόνου, του περιβάλλοντος και του φαινολογικού σταδίου του φυτού και επεξεργάζεται όλα τα δεδομένα εισόδου προκειμένου να παρέχει πληροφορίες σχετικά με τον κίνδυνο μόλυνσης στον αγρό. 
+Puccinia triticina
+Η ΑΠΟΦΑΣΗ: Εφαρμογή στρατηγικών προστασίας 
+ΤΟ ΜΟΝΤΕΛΟ: Το μοντέλο της καστανής σκωρίασης των φύλλων λαμβάνει υπόψη τις κύριες διεργασίες του παθογόνου, του περιβάλλοντος και του φαινολογικού σταδίου του φυτού και επεξεργάζεται όλα τα δεδομένα εισόδου προκειμένου να παράσχει πληροφορίες σχετικά με τον κίνδυνο μόλυνσης στον αγρό. 
+Fusarium graminearum
+Η ΑΠΟΦΑΣΗ: Εφαρμογή στρατηγικών προστασίας 
+ΤΟ ΜΟΝΤΕΛΟ: Το μοντέλο για το fusarium head blight λαμβάνει υπόψη τις κύριες διεργασίες του παθογόνου, του περιβάλλοντος και του φαινολογικού σταδίου του φυτού και επεξεργάζεται όλα τα δεδομένα εισόδου προκειμένου να παρέχει πληροφορίες σχετικά με τον κίνδυνο μόλυνσης στον αγρό. Το μοντέλο παρέχει επίσης την πιθανότητα η ποσότητα των μυκοτοξινών να υπερβαίνει το νόμιμο όριο. 
+Zymoseptoria tritici
+Η ΑΠΟΦΑΣΗ: Εφαρμογή στρατηγικών προστασίας 
+ΤΟ ΜΟΝΤΕΛΟ: Το μοντέλο Septoria λαμβάνει υπόψη τις κύριες διεργασίες του παθογόνου, του περιβάλλοντος και του φαινολογικού σταδίου του φυτού και επεξεργάζεται όλα τα δεδομένα εισόδου προκειμένου να παράσχει πληροφορίες σχετικά με τον κίνδυνο μόλυνσης από την κηλίδα των φύλλων (Septoria blotch) στον αγρό. 
+Blumeria graminis f. sp. tritici
+Η ΑΠΟΦΑΣΗ: Εφαρμογή στρατηγικών προστασίας 
+ΤΟ ΜΟΝΤΕΛΟ: Το μοντέλο Septoria λαμβάνει υπόψη τις κύριες διεργασίες του παθογόνου, του περιβάλλοντος και του φαινολογικού σταδίου του φυτού και επεξεργάζεται όλα τα δεδομένα εισόδου προκειμένου να παρέχει πληροφορίες σχετικά με τον κίνδυνο μόλυνσης από το ωίδιο του σιταριού στον αγρό. 
+ΠΗΓΗ: Όλα τα μοντέλα έχουν προσαρμοστεί/αναπτυχθεί από την Horta s.l.r.
+https://www.horta-srl.it/en/
+</t>
+  </si>
+  <si>
     <t>it.horta.dss.1_0.models.it_horta_dss_wheat.name</t>
   </si>
   <si>
@@ -668,9 +801,18 @@
     <t>Horta Vehnä DSS</t>
   </si>
   <si>
+    <t>Horta Kviečių SPS</t>
+  </si>
+  <si>
+    <t>Horta Wheat DSS</t>
+  </si>
+  <si>
     <t>Horta DSS Grano</t>
   </si>
   <si>
+    <t>Horta DSS σιταριού</t>
+  </si>
+  <si>
     <t>it.horta.dss.1_0.models.it_horta_dss_wheat.purpose</t>
   </si>
   <si>
@@ -698,14 +840,23 @@
     <t>Malli arvioi vehnän kasvitautiriskejä.</t>
   </si>
   <si>
+    <t>Modelių tikslas prognozuoti ligų riziką kviečių pasėliuose.</t>
+  </si>
+  <si>
+    <t>Les modèles visent à prédire le risque de maladie dans les cultures de blé.</t>
+  </si>
+  <si>
     <t>I modelli hanno lo scopo di prevedere il rischio di malattia nelle colture di grano</t>
+  </si>
+  <si>
+    <t>Τα μοντέλα αποσκοπούν στην πρόβλεψη του κινδύνου εμφάνισης ασθενειών σε καλλιέργειες σιταριού</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,6 +918,20 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -827,43 +992,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1202,7 +1402,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1264,22 +1464,31 @@
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="J2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1293,160 +1502,194 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="45.140625" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="5"/>
-    <col min="6" max="6" width="37.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="45.140625" style="7" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="8"/>
+    <col min="6" max="6" width="37.5703125" style="7" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="7"/>
+    <col min="10" max="10" width="22.28515625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="35.7109375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="7"/>
+    <col min="13" max="13" width="31.42578125" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="85.5" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:16" s="9" customFormat="1" ht="85.5" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="J2" s="14" t="s">
         <v>27</v>
       </c>
+      <c r="K2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="45.75">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="5" t="s">
+    <row r="3" spans="1:16" s="9" customFormat="1">
+      <c r="A3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>33</v>
       </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="198">
-      <c r="A4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="9" t="s">
+    <row r="4" spans="1:16" s="9" customFormat="1" ht="45.75">
+      <c r="A4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="D4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>43</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1459,159 +1702,195 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="9.140625" style="5"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="28.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="7"/>
+    <col min="4" max="4" width="9.140625" style="8"/>
+    <col min="5" max="5" width="9.140625" style="7"/>
+    <col min="6" max="6" width="10.140625" style="7" customWidth="1"/>
+    <col min="7" max="10" width="9.140625" style="7"/>
+    <col min="11" max="11" width="39.42578125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="7"/>
+    <col min="13" max="13" width="35.140625" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="5" t="s">
+    <row r="2" spans="1:16" s="9" customFormat="1" ht="179.25" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>52</v>
+        <v>59</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1">
-      <c r="A3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>61</v>
+    <row r="3" spans="1:16" s="9" customFormat="1" ht="45.75">
+      <c r="A3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="30.75">
-      <c r="A4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>71</v>
+    <row r="4" spans="1:16" s="9" customFormat="1" ht="152.25">
+      <c r="A4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1620,6 +1899,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CE6F8D6BD046F944849C04732F5FA09C" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="985394bff33c465c59c1b6ffc7f2b18c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f0f33890-2782-435d-9951-89eaf76ec08c" xmlns:ns3="49b2234f-12e0-4bdf-b627-3d078507bec9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6e7ee76b1c64bbcff38e34ea77f7800" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1879,15 +2167,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1902,11 +2181,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA3FD343-E3BB-4F25-AC6B-DB79A1A65E43}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBD48EF6-5020-4693-B873-1B8A17DD3C22}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBD48EF6-5020-4693-B873-1B8A17DD3C22}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA3FD343-E3BB-4F25-AC6B-DB79A1A65E43}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
